--- a/results/tutorials/microGalaxy-tools.xlsx
+++ b/results/tutorials/microGalaxy-tools.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,25 +370,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>EDAM topic</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>EDAM operation</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Suite ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
@@ -405,25 +410,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Making sense of a newly assembled genome</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Sequence visualisation, Read mapping, Genome visualisation, Sequence alignment, Mapping</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
@@ -438,25 +448,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Unicycler Assembly</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>unicycler</t>
         </is>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
@@ -471,25 +486,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Unicycler Assembly</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>quast</t>
         </is>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -504,25 +524,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Unicycler Assembly</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>prokka</t>
         </is>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
@@ -537,25 +562,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Unicycler Assembly</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
@@ -570,25 +600,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>megahit</t>
         </is>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
@@ -603,25 +638,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
@@ -636,25 +676,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>coverm</t>
         </is>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
@@ -669,25 +714,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>quast</t>
         </is>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
@@ -702,25 +752,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>spades</t>
         </is>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
@@ -735,25 +790,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>cutadapt</t>
         </is>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
@@ -768,25 +828,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>bamtools</t>
         </is>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
@@ -801,25 +866,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1</v>
       </c>
     </row>
@@ -834,25 +904,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>megahit_contig2fastg</t>
         </is>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
@@ -867,25 +942,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>falco</t>
         </is>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1</v>
       </c>
     </row>
@@ -900,25 +980,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1</v>
       </c>
     </row>
@@ -933,25 +1018,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
@@ -966,25 +1056,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>quast</t>
         </is>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1</v>
       </c>
     </row>
@@ -999,25 +1094,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>shovill</t>
         </is>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1</v>
       </c>
     </row>
@@ -1032,25 +1132,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1</v>
       </c>
     </row>
@@ -1065,25 +1170,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>flye</t>
         </is>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
@@ -1098,25 +1208,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1</v>
       </c>
     </row>
@@ -1131,25 +1246,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>nanoplot</t>
         </is>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
@@ -1164,25 +1284,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>polypolish</t>
         </is>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
@@ -1197,25 +1322,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>quast</t>
         </is>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -1230,25 +1360,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1</v>
       </c>
     </row>
@@ -1263,25 +1398,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>filtlong</t>
         </is>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
@@ -1296,25 +1436,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Checking expected species and contamination in bacterial isolate</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>bracken</t>
         </is>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1</v>
       </c>
     </row>
@@ -1329,25 +1474,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Checking expected species and contamination in bacterial isolate</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>recentrifuge</t>
         </is>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
@@ -1362,25 +1512,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Checking expected species and contamination in bacterial isolate</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1</v>
       </c>
     </row>
@@ -1395,25 +1550,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Identifying tuberculosis transmission links: from SNPs to transmission clusters</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Infectious disease, DNA polymorphism</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>snippy</t>
         </is>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -1428,25 +1588,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Identifying tuberculosis transmission links: from SNPs to transmission clusters</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Infectious disease, DNA polymorphism</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>tbprofiler</t>
         </is>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1</v>
       </c>
     </row>
@@ -1461,25 +1626,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Tree thinking for tuberculosis evolution and epidemiology</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Phylogeny, Infectious disease</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>raxml</t>
         </is>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1</v>
       </c>
     </row>
@@ -1494,25 +1664,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Evolution</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Phylogenetic analysis for bacterial comparative genomics</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Phylogeny</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences)</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>fasttree</t>
         </is>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
@@ -1527,25 +1702,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Genome annotation with Prokka</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Coding region prediction, Genome visualisation, Gene prediction, Genome annotation</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
@@ -1560,25 +1740,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Genome annotation with Prokka</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Coding region prediction, Genome visualisation, Gene prediction, Genome annotation</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>prokka</t>
         </is>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1</v>
       </c>
     </row>
@@ -1593,25 +1778,30 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Bacterial Genome Annotation</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>plasmidfinder</t>
         </is>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1</v>
       </c>
     </row>
@@ -1626,25 +1816,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Bacterial Genome Annotation</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1</v>
       </c>
     </row>
@@ -1659,25 +1854,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Bacterial Genome Annotation</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>integronfinder</t>
         </is>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1</v>
       </c>
     </row>
@@ -1692,25 +1892,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Bacterial Genome Annotation</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>bakta</t>
         </is>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
@@ -1725,25 +1930,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Bacterial Genome Annotation</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>ISEScan</t>
         </is>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1</v>
       </c>
     </row>
@@ -1758,25 +1968,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1</v>
       </c>
     </row>
@@ -1791,25 +2006,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>staramr</t>
         </is>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1</v>
       </c>
     </row>
@@ -1824,25 +2044,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>bakta</t>
         </is>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1</v>
       </c>
     </row>
@@ -1857,25 +2082,30 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Refining Genome Annotations with Apollo (prokaryotes)</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Gene and protein families, Sequence analysis</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Genome visualisation</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1</v>
       </c>
     </row>
@@ -1890,25 +2120,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Bacterial genome quality control</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Statistical calculation, Validation, Sequencing quality control, Genome comparison, Sequence composition calculation, Sequence assembly validation</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>checkm2</t>
         </is>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>1</v>
       </c>
     </row>
@@ -1923,25 +2158,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Bacterial genome quality control</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Genomics, Microbiology</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Statistical calculation, Validation, Sequencing quality control, Genome comparison, Sequence composition calculation, Sequence assembly validation</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>drep</t>
         </is>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>1</v>
       </c>
     </row>
@@ -1956,25 +2196,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Comparative gene analysis in unannotated genomes</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Genomics, Gene and protein families, Sequence analysis, Phylogeny, Comparative genomics</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1</v>
       </c>
     </row>
@@ -1989,25 +2234,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Comparative gene analysis in unannotated genomes</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Genomics, Gene and protein families, Sequence analysis, Phylogeny, Comparative genomics</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>orfipy</t>
         </is>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>1</v>
       </c>
     </row>
@@ -2022,25 +2272,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Comparative gene analysis in unannotated genomes</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Genomics, Gene and protein families, Sequence analysis, Phylogeny, Comparative genomics</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1</v>
       </c>
     </row>
@@ -2055,25 +2310,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Comparative gene analysis in unannotated genomes</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Genomics, Gene and protein families, Sequence analysis, Phylogeny, Comparative genomics</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1</v>
       </c>
     </row>
@@ -2088,25 +2348,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Comparative gene analysis in unannotated genomes</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Genomics, Gene and protein families, Sequence analysis, Phylogeny, Comparative genomics</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>mafft</t>
         </is>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1</v>
       </c>
     </row>
@@ -2121,25 +2386,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>Genome Annotation</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Essential genes detection with Transposon insertion sequencing</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence analysis, Mobile genetic elements</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Sequence trimming, Transposon prediction, Read pre-processing, Primer removal</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>cutadapt</t>
         </is>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1</v>
       </c>
     </row>
@@ -2154,25 +2424,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Microbial Variant Calling</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Genomics, Sequence assembly, DNA polymorphism, Microbiology, Sequence analysis, Genetic variation</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Genome visualisation, Variant calling, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>snippy</t>
         </is>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1</v>
       </c>
     </row>
@@ -2187,25 +2462,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Microbial Variant Calling</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Genomics, Sequence assembly, DNA polymorphism, Microbiology, Sequence analysis, Genetic variation</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation, Genome visualisation, Variant calling, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1</v>
       </c>
     </row>
@@ -2220,25 +2500,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1</v>
       </c>
     </row>
@@ -2253,25 +2538,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1</v>
       </c>
     </row>
@@ -2286,25 +2576,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1</v>
       </c>
     </row>
@@ -2319,25 +2614,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1</v>
       </c>
     </row>
@@ -2352,25 +2652,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1</v>
       </c>
     </row>
@@ -2385,25 +2690,30 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1</v>
       </c>
     </row>
@@ -2418,25 +2728,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1</v>
       </c>
     </row>
@@ -2451,25 +2766,30 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1</v>
       </c>
     </row>
@@ -2484,25 +2804,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1</v>
       </c>
     </row>
@@ -2517,25 +2842,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1</v>
       </c>
     </row>
@@ -2550,25 +2880,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1</v>
       </c>
     </row>
@@ -2583,25 +2918,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1</v>
       </c>
     </row>
@@ -2616,25 +2956,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1</v>
       </c>
     </row>
@@ -2649,25 +2994,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>1</v>
       </c>
     </row>
@@ -2682,25 +3032,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>Analyses of metagenomics data - The global picture</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1</v>
       </c>
     </row>
@@ -2715,25 +3070,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>1</v>
       </c>
     </row>
@@ -2748,25 +3108,30 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1</v>
       </c>
     </row>
@@ -2781,25 +3146,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>kraken_biom</t>
         </is>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1</v>
       </c>
     </row>
@@ -2814,25 +3184,30 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>bracken</t>
         </is>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1</v>
       </c>
     </row>
@@ -2847,25 +3222,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>krakentools</t>
         </is>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1</v>
       </c>
     </row>
@@ -2880,25 +3260,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>metaphlan</t>
         </is>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1</v>
       </c>
     </row>
@@ -2913,25 +3298,30 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1</v>
       </c>
     </row>
@@ -2946,25 +3336,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1</v>
       </c>
     </row>
@@ -2979,25 +3374,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1</v>
       </c>
     </row>
@@ -3012,25 +3412,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>krakentools</t>
         </is>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1</v>
       </c>
     </row>
@@ -3045,25 +3450,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>1</v>
       </c>
     </row>
@@ -3078,25 +3488,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>flye</t>
         </is>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1</v>
       </c>
     </row>
@@ -3111,25 +3526,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>clustalw</t>
         </is>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1</v>
       </c>
     </row>
@@ -3144,25 +3564,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>nanoplot</t>
         </is>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1</v>
       </c>
     </row>
@@ -3177,25 +3602,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>medaka</t>
         </is>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>1</v>
       </c>
     </row>
@@ -3210,25 +3640,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>krakentools</t>
         </is>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>1</v>
       </c>
     </row>
@@ -3243,25 +3678,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>fasttree</t>
         </is>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>1</v>
       </c>
     </row>
@@ -3276,25 +3716,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>1</v>
       </c>
     </row>
@@ -3309,25 +3754,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>krakentools</t>
         </is>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>1</v>
       </c>
     </row>
@@ -3342,25 +3792,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>1</v>
       </c>
     </row>
@@ -3375,25 +3830,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>1</v>
       </c>
     </row>
@@ -3408,25 +3868,30 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>abricate</t>
         </is>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>1</v>
       </c>
     </row>
@@ -3441,25 +3906,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>1</v>
       </c>
     </row>
@@ -3474,25 +3944,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>newick_utils</t>
         </is>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>1</v>
       </c>
     </row>
@@ -3507,25 +3982,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>clair3</t>
         </is>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1</v>
       </c>
     </row>
@@ -3540,25 +4020,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>mlst</t>
         </is>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>1</v>
       </c>
     </row>
@@ -3573,25 +4058,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>1</v>
       </c>
     </row>
@@ -3606,25 +4096,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1</v>
       </c>
     </row>
@@ -3639,25 +4134,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>1</v>
       </c>
     </row>
@@ -3672,25 +4172,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>phyloseq</t>
         </is>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>1</v>
       </c>
     </row>
@@ -3705,25 +4210,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>1</v>
       </c>
     </row>
@@ -3738,25 +4248,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>1</v>
       </c>
     </row>
@@ -3771,25 +4286,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>1</v>
       </c>
     </row>
@@ -3804,25 +4324,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>1</v>
       </c>
     </row>
@@ -3837,25 +4362,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>1</v>
       </c>
     </row>
@@ -3870,25 +4400,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>dada2</t>
         </is>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>1</v>
       </c>
     </row>
@@ -3903,25 +4438,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>1</v>
       </c>
     </row>
@@ -3936,25 +4476,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>graphlan</t>
         </is>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>1</v>
       </c>
     </row>
@@ -3969,25 +4514,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>export2graphlan</t>
         </is>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>1</v>
       </c>
     </row>
@@ -4002,25 +4552,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>1</v>
       </c>
     </row>
@@ -4035,25 +4590,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>1</v>
       </c>
     </row>
@@ -4068,25 +4628,30 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>1</v>
       </c>
     </row>
@@ -4101,25 +4666,30 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>sortmerna</t>
         </is>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>1</v>
       </c>
     </row>
@@ -4134,25 +4704,30 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>1</v>
       </c>
     </row>
@@ -4167,25 +4742,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>metaphlan</t>
         </is>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>1</v>
       </c>
     </row>
@@ -4200,25 +4780,30 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>cutadapt</t>
         </is>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>1</v>
       </c>
     </row>
@@ -4233,25 +4818,30 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>graphlan</t>
         </is>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>1</v>
       </c>
     </row>
@@ -4266,25 +4856,30 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>1</v>
       </c>
     </row>
@@ -4299,25 +4894,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>1</v>
       </c>
     </row>
@@ -4332,25 +4932,30 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>1</v>
       </c>
     </row>
@@ -4365,25 +4970,30 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>racon</t>
         </is>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>1</v>
       </c>
     </row>
@@ -4398,25 +5008,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>nanoplot</t>
         </is>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>1</v>
       </c>
     </row>
@@ -4431,25 +5046,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>unicycler</t>
         </is>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>1</v>
       </c>
     </row>
@@ -4464,25 +5084,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>plasflow</t>
         </is>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>1</v>
       </c>
     </row>
@@ -4497,25 +5122,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>staramr</t>
         </is>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>1</v>
       </c>
     </row>
@@ -4530,25 +5160,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>miniasm</t>
         </is>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>1</v>
       </c>
     </row>
@@ -4563,25 +5198,30 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>Antibiotic resistance detection</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>1</v>
       </c>
     </row>
@@ -4596,25 +5236,30 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>megahit</t>
         </is>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>1</v>
       </c>
     </row>
@@ -4629,25 +5274,30 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>1</v>
       </c>
     </row>
@@ -4662,25 +5312,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>coverm</t>
         </is>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>1</v>
       </c>
     </row>
@@ -4695,25 +5350,30 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>quast</t>
         </is>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>1</v>
       </c>
     </row>
@@ -4728,25 +5388,30 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>spades</t>
         </is>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>1</v>
       </c>
     </row>
@@ -4761,25 +5426,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>cutadapt</t>
         </is>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>1</v>
       </c>
     </row>
@@ -4794,25 +5464,30 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>bamtools</t>
         </is>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>1</v>
       </c>
     </row>
@@ -4827,25 +5502,30 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>bandage</t>
         </is>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>1</v>
       </c>
     </row>
@@ -4860,25 +5540,30 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>megahit_contig2fastg</t>
         </is>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>1</v>
       </c>
     </row>
@@ -4893,25 +5578,30 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>1</v>
       </c>
     </row>
@@ -4926,25 +5616,30 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>graphlan</t>
         </is>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>1</v>
       </c>
     </row>
@@ -4959,25 +5654,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>export2graphlan</t>
         </is>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>1</v>
       </c>
     </row>
@@ -4992,25 +5692,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>1</v>
       </c>
     </row>
@@ -5025,25 +5730,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>1</v>
       </c>
     </row>
@@ -5058,25 +5768,30 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>1</v>
       </c>
     </row>
@@ -5091,25 +5806,30 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>sortmerna</t>
         </is>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>1</v>
       </c>
     </row>
@@ -5124,25 +5844,30 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>1</v>
       </c>
     </row>
@@ -5157,25 +5882,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>metaphlan</t>
         </is>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>1</v>
       </c>
     </row>
@@ -5190,25 +5920,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>cutadapt</t>
         </is>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>1</v>
       </c>
     </row>
@@ -5223,25 +5958,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>graphlan</t>
         </is>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>1</v>
       </c>
     </row>
@@ -5256,25 +5996,30 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>1</v>
       </c>
     </row>
@@ -5289,25 +6034,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>1</v>
       </c>
     </row>
@@ -5322,25 +6072,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>humann</t>
         </is>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>1</v>
       </c>
     </row>
@@ -5355,25 +6110,30 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>1</v>
       </c>
     </row>
@@ -5388,25 +6148,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>1</v>
       </c>
     </row>
@@ -5421,25 +6186,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>1</v>
       </c>
     </row>
@@ -5454,25 +6224,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>1</v>
       </c>
     </row>
@@ -5482,20 +6257,25 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>QIIME 2 Cancer Microbiome Intervention</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>glimmer_hmm</t>
         </is>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>1</v>
       </c>
     </row>
@@ -5505,20 +6285,25 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>QIIME 2 Moving Pictures</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>glimmer_hmm</t>
         </is>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>1</v>
       </c>
     </row>
@@ -5533,25 +6318,30 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>Binning of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>Genome assembly, Statistical calculation, Validation, Sequencing quality control, Sequence composition calculation, Sequence assembly validation</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>megahit</t>
         </is>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>1</v>
       </c>
     </row>
@@ -5566,25 +6356,30 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>Binning of metagenomic sequencing data</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>Genome assembly, Statistical calculation, Validation, Sequencing quality control, Sequence composition calculation, Sequence assembly validation</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>checkm</t>
         </is>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>1</v>
       </c>
     </row>
@@ -5599,25 +6394,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>taxonomy_krona_chart</t>
         </is>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>1</v>
       </c>
     </row>
@@ -5632,25 +6432,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>1</v>
       </c>
     </row>
@@ -5665,25 +6470,30 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>1</v>
       </c>
     </row>
@@ -5698,25 +6508,30 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>1</v>
       </c>
     </row>
@@ -5731,25 +6546,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>1</v>
       </c>
     </row>
@@ -5764,25 +6584,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>1</v>
       </c>
     </row>
@@ -5797,25 +6622,30 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>1</v>
       </c>
     </row>
@@ -5830,25 +6660,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>1</v>
       </c>
     </row>
@@ -5863,25 +6698,30 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>1</v>
       </c>
     </row>
@@ -5896,25 +6736,30 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>1</v>
       </c>
     </row>
@@ -5929,25 +6774,30 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>1</v>
       </c>
     </row>
@@ -5962,25 +6812,30 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>1</v>
       </c>
     </row>
@@ -5995,25 +6850,30 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>1</v>
       </c>
     </row>
@@ -6028,25 +6888,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>1</v>
       </c>
     </row>
@@ -6061,25 +6926,30 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>1</v>
       </c>
     </row>
@@ -6094,25 +6964,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>1</v>
       </c>
     </row>
@@ -6127,25 +7002,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>1</v>
       </c>
     </row>
@@ -6160,25 +7040,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>1</v>
       </c>
     </row>
@@ -6193,25 +7078,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>1</v>
       </c>
     </row>
@@ -6226,25 +7116,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>1</v>
       </c>
     </row>
@@ -6259,25 +7154,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>1</v>
       </c>
     </row>
@@ -6292,25 +7192,30 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>1</v>
       </c>
     </row>
@@ -6325,25 +7230,30 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>1</v>
       </c>
     </row>
@@ -6358,25 +7268,30 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>1</v>
       </c>
     </row>
@@ -6391,25 +7306,30 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>1</v>
       </c>
     </row>
@@ -6424,25 +7344,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>1</v>
       </c>
     </row>
@@ -6457,25 +7382,30 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>1</v>
       </c>
     </row>
@@ -6490,25 +7420,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>1</v>
       </c>
     </row>
@@ -6523,25 +7458,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>newick_utils</t>
         </is>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>1</v>
       </c>
     </row>
@@ -6556,25 +7496,30 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>1</v>
       </c>
     </row>
@@ -6589,25 +7534,30 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>1</v>
       </c>
     </row>
@@ -6622,25 +7572,30 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (extended)</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>1</v>
       </c>
     </row>
@@ -6655,25 +7610,30 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>1</v>
       </c>
     </row>
@@ -6688,25 +7648,30 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>1</v>
       </c>
     </row>
@@ -6721,25 +7686,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>1</v>
       </c>
     </row>
@@ -6754,25 +7724,30 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>1</v>
       </c>
     </row>
@@ -6787,25 +7762,30 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>1</v>
       </c>
     </row>
@@ -6820,25 +7800,30 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>1</v>
       </c>
     </row>
@@ -6853,25 +7838,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>1</v>
       </c>
     </row>
@@ -6886,25 +7876,30 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>1</v>
       </c>
     </row>
@@ -6919,25 +7914,30 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>1</v>
       </c>
     </row>
@@ -6952,25 +7952,30 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>1</v>
       </c>
     </row>
@@ -6985,25 +7990,30 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>1</v>
       </c>
     </row>
@@ -7018,25 +8028,30 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>1</v>
       </c>
     </row>
@@ -7051,25 +8066,30 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>1</v>
       </c>
     </row>
@@ -7084,25 +8104,30 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>1</v>
       </c>
     </row>
@@ -7117,25 +8142,30 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>1</v>
       </c>
     </row>
@@ -7150,25 +8180,30 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>1</v>
       </c>
     </row>
@@ -7183,25 +8218,30 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>1</v>
       </c>
     </row>
@@ -7216,25 +8256,30 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>1</v>
       </c>
     </row>
@@ -7249,25 +8294,30 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>1</v>
       </c>
     </row>
@@ -7282,25 +8332,30 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>1</v>
       </c>
     </row>
@@ -7315,25 +8370,30 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>1</v>
       </c>
     </row>
@@ -7348,25 +8408,30 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>newick_utils</t>
         </is>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>1</v>
       </c>
     </row>
@@ -7381,25 +8446,30 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>1</v>
       </c>
     </row>
@@ -7414,25 +8484,30 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>1</v>
       </c>
     </row>
@@ -7447,25 +8522,30 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
+          <t>Microbiome</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
           <t>16S Microbial Analysis with mothur (short)</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>mothur</t>
         </is>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>1</v>
       </c>
     </row>
@@ -7480,25 +8560,30 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>jbrowse</t>
         </is>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>1</v>
       </c>
     </row>
@@ -7513,25 +8598,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>snippy</t>
         </is>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>1</v>
       </c>
     </row>
@@ -7546,25 +8636,30 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>tbprofiler</t>
         </is>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>1</v>
       </c>
     </row>
@@ -7579,25 +8674,30 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>qualimap</t>
         </is>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>1</v>
       </c>
     </row>
@@ -7612,25 +8712,30 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>1</v>
       </c>
     </row>
@@ -7645,25 +8750,30 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>multiqc</t>
         </is>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>1</v>
       </c>
     </row>
@@ -7678,25 +8788,30 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>1</v>
       </c>
     </row>
@@ -7711,25 +8826,30 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
+          <t>Variant Analysis</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
           <t>M. tuberculosis Variant Analysis</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>Genomics, Microbiology, Sequence assembly, Genetic variation, Public health and epidemiology, Infectious disease</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>emboss_5</t>
         </is>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>1</v>
       </c>
     </row>
@@ -7744,25 +8864,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>1</v>
       </c>
     </row>
@@ -7777,25 +8902,30 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>1</v>
       </c>
     </row>
@@ -7810,25 +8940,30 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>1</v>
       </c>
     </row>
@@ -7843,25 +8978,30 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>1</v>
       </c>
     </row>
@@ -7876,25 +9016,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>1</v>
       </c>
     </row>
@@ -7909,25 +9054,30 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
           <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>1</v>
       </c>
     </row>
@@ -7942,25 +9092,30 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>1</v>
       </c>
     </row>
@@ -7975,25 +9130,30 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>1</v>
       </c>
     </row>
@@ -8008,25 +9168,30 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>1</v>
       </c>
     </row>
@@ -8041,25 +9206,30 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>1</v>
       </c>
     </row>
@@ -8074,25 +9244,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>1</v>
       </c>
     </row>
@@ -8107,25 +9282,30 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
           <t>metaQuantome 2: Function</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>metaquantome</t>
         </is>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>1</v>
       </c>
     </row>
@@ -8140,25 +9320,30 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
           <t>Metaproteomics tutorial</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>Prediction and recognition, Visualisation</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>peptideshaker</t>
         </is>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>1</v>
       </c>
     </row>
@@ -8173,25 +9358,30 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
           <t>Metaproteomics tutorial</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>Prediction and recognition, Visualisation</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>peptideshaker</t>
         </is>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>1</v>
       </c>
     </row>
@@ -8206,25 +9396,30 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
           <t>Metaproteomics tutorial</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>Prediction and recognition, Visualisation</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>unipept</t>
         </is>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>1</v>
       </c>
     </row>
@@ -8239,25 +9434,30 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
           <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>msconvert</t>
         </is>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>1</v>
       </c>
     </row>
@@ -8272,25 +9472,30 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
           <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>flashlfq</t>
         </is>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>1</v>
       </c>
     </row>
@@ -8305,25 +9510,30 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
           <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>peptideshaker</t>
         </is>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>1</v>
       </c>
     </row>
@@ -8338,25 +9548,30 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
           <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>peptideshaker</t>
         </is>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>1</v>
       </c>
     </row>
@@ -8371,25 +9586,30 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
+          <t>Proteomics</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
           <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>unipept</t>
         </is>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>1</v>
       </c>
     </row>
@@ -8404,25 +9624,30 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
+          <t>Sequence analysis</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
           <t>Quality and contamination control in bacterial isolate using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>falco</t>
         </is>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>1</v>
       </c>
     </row>
@@ -8437,25 +9662,30 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
+          <t>Sequence analysis</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
           <t>Quality and contamination control in bacterial isolate using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>fastp</t>
         </is>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>1</v>
       </c>
     </row>
@@ -8470,25 +9700,30 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>Sequence analysis</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>Quality and contamination control in bacterial isolate using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>kraken2</t>
         </is>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>1</v>
       </c>
     </row>
@@ -8503,25 +9738,30 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>Sequence analysis</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
           <t>Quality and contamination control in bacterial isolate using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>recentrifuge</t>
         </is>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>1</v>
       </c>
     </row>
@@ -8536,25 +9776,30 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
+          <t>Sequence analysis</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
           <t>Quality and contamination control in bacterial isolate using Illumina MiSeq Data</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>Whole genome sequencing, Genomics, Microbiology, Microbial ecology</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>bracken</t>
         </is>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>1</v>
       </c>
     </row>

--- a/results/tutorials/microGalaxy-tools.xlsx
+++ b/results/tutorials/microGalaxy-tools.xlsx
@@ -405,7 +405,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -415,22 +415,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Making sense of a newly assembled genome</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sequence assembly, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sequence visualisation, Read mapping, Genome visualisation, Sequence alignment, Mapping</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H2">
@@ -439,11 +439,11 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -453,22 +453,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Unicycler Assembly</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sequence assembly, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H3">
@@ -477,11 +477,11 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>shovill</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -491,22 +491,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Unicycler Assembly</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sequence assembly, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>shovill</t>
         </is>
       </c>
       <c r="H4">
@@ -515,11 +515,11 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -529,22 +529,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unicycler Assembly</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sequence assembly, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>prokka</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H5">
@@ -553,11 +553,11 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -567,22 +567,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Unicycler Assembly</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sequence assembly, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genome assembly, Aggregation, Sequencing quality control, Genome annotation, Gene prediction, Sequence composition calculation, Sequence assembly validation, Coding region prediction, Statistical calculation, Validation, Visualisation</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H6">
@@ -591,11 +591,11 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>falco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -605,22 +605,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>falco</t>
         </is>
       </c>
       <c r="H7">
@@ -629,11 +629,11 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H8">
@@ -667,11 +667,11 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>coverm_contig</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>coverm</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="H9">
@@ -705,11 +705,11 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H10">
@@ -743,11 +743,11 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>metaspades</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>spades</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="H11">
@@ -781,11 +781,11 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>coverm_contig</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>coverm</t>
         </is>
       </c>
       <c r="H12">
@@ -819,11 +819,11 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>metaspades</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>spades</t>
         </is>
       </c>
       <c r="H13">
@@ -857,11 +857,11 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -895,11 +895,11 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H15">
@@ -933,11 +933,11 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>falco</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -947,22 +947,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>falco</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="H16">
@@ -971,11 +971,11 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,22 +985,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Making sense of a newly assembled genome</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Sequence visualisation, Read mapping, Genome visualisation, Sequence alignment, Mapping</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H17">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1023,22 +1023,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H18">
@@ -1061,17 +1061,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>shovill</t>
+          <t>filtlong</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>shovill</t>
+          <t>filtlong</t>
         </is>
       </c>
       <c r="H20">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1137,22 +1137,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Genome Assembly of a bacterial genome (MRSA) sequenced using Illumina MiSeq Data</t>
+          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology</t>
+          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Genome assembly, Sequencing quality control, Sequence assembly visualisation, Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Statistical calculation, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H21">
@@ -1161,11 +1161,11 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>polypolish</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>polypolish</t>
         </is>
       </c>
       <c r="H22">
@@ -1199,11 +1199,11 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H23">
@@ -1237,11 +1237,11 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Box-Whisker plot plotting, Sequence contamination filtering, De-novo assembly, Sequence assembly validation, Filtering, Scatter plot plotting, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequencing error detection, Cross-assembly, Sequence alignment, Mapping assembly, Sequencing quality control, Sequence composition calculation, Read mapping, Visualisation</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="H24">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>polypolish</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
+          <t>Unicycler Assembly</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
+          <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Aggregation, Genome assembly, Statistical calculation, Coding region prediction, Gene prediction, Sequence composition calculation, Sequencing quality control, Visualisation, Validation, Genome annotation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>polypolish</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H25">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1327,22 +1327,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
+          <t>Unicycler Assembly</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
+          <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Aggregation, Genome assembly, Statistical calculation, Coding region prediction, Gene prediction, Sequence composition calculation, Sequencing quality control, Visualisation, Validation, Genome annotation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H26">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1365,22 +1365,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
+          <t>Unicycler Assembly</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
+          <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Aggregation, Genome assembly, Statistical calculation, Coding region prediction, Gene prediction, Sequence composition calculation, Sequencing quality control, Visualisation, Validation, Genome annotation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="H27">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>filtlong</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1403,22 +1403,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Genome Assembly of MRSA from Oxford Nanopore MinION data (and optionally Illumina data)</t>
+          <t>Unicycler Assembly</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sequence assembly, Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Antimicrobial resistance</t>
+          <t>Sequence assembly, Genomics, Microbiology</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Box-Whisker plot plotting, Sequencing quality control, Filtering, Cross-assembly, Sequence alignment, Sequence assembly validation, Sequence composition calculation, Mapping assembly, Sequencing error detection, Sequence assembly visualisation, Sequence contamination filtering, Statistical calculation, De-novo assembly, Read mapping, Visualisation</t>
+          <t>Aggregation, Genome assembly, Statistical calculation, Coding region prediction, Gene prediction, Sequence composition calculation, Sequencing quality control, Visualisation, Validation, Genome annotation, Sequence assembly validation</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>filtlong</t>
+          <t>prokka</t>
         </is>
       </c>
       <c r="H28">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Expression analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Expression analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Expression analysis, Statistical calculation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Expression analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>raxml</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Identifying tuberculosis transmission links: from SNPs to transmission clusters</t>
+          <t>Tree thinking for tuberculosis evolution and epidemiology</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Genomics, Microbiology, Infectious disease, DNA polymorphism</t>
+          <t>Genomics, Microbiology, Phylogeny, Infectious disease</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation</t>
+          <t>Phylogenetic tree analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>raxml</t>
         </is>
       </c>
       <c r="H32">
@@ -1579,11 +1579,11 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Antimicrobial resistance prediction, Variant calling, Phylogenetic tree visualisation</t>
+          <t>Antimicrobial resistance prediction, Phylogenetic tree visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H33">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>raxml</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1631,22 +1631,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tree thinking for tuberculosis evolution and epidemiology</t>
+          <t>Identifying tuberculosis transmission links: from SNPs to transmission clusters</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Genomics, Microbiology, Phylogeny, Infectious disease</t>
+          <t>Genomics, Microbiology, Infectious disease, DNA polymorphism</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequence analysis</t>
+          <t>Antimicrobial resistance prediction, Phylogenetic tree visualisation, Variant calling, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>raxml</t>
+          <t>tb-profiler</t>
         </is>
       </c>
       <c r="H34">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences)</t>
+          <t>Phylogenetic tree generation (from molecular sequences), Phylogenetic tree generation (maximum likelihood and Bayesian methods)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome visualisation, Gene prediction, Genome annotation</t>
+          <t>Genome visualisation, Coding region prediction, Genome annotation, Gene prediction</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Coding region prediction, Genome visualisation, Gene prediction, Genome annotation</t>
+          <t>Genome visualisation, Coding region prediction, Genome annotation, Gene prediction</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1783,22 +1783,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bacterial Genome Annotation</t>
+          <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
+          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
+          <t>Antimicrobial resistance prediction, Genome visualisation, Genome annotation, Read mapping</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>plasmidfinder</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H38">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1821,22 +1821,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bacterial Genome Annotation</t>
+          <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
+          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
+          <t>Antimicrobial resistance prediction, Genome visualisation, Genome annotation, Read mapping</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H39">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>integron_finder</t>
+          <t>staramr_search</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1859,22 +1859,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bacterial Genome Annotation</t>
+          <t>Identification of AMR genes in an assembled bacterial genome</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
+          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
+          <t>Antimicrobial resistance prediction, Genome visualisation, Genome annotation, Read mapping</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>integronfinder</t>
+          <t>staramr</t>
         </is>
       </c>
       <c r="H40">
@@ -1883,11 +1883,11 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
+          <t>Genome assembly, Genome visualisation, Sequence motif recognition, Structural variation detection, Protein feature detection, Multilocus sequence typing, Genome annotation, Nucleic acid feature detection, Scaffolding</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>plasmidfinder</t>
         </is>
       </c>
       <c r="H41">
@@ -1921,11 +1921,11 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>isescan</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Genome assembly, Multilocus sequence typing, Nucleic acid feature detection, Protein feature detection, Genome visualisation, Genome annotation, Structural variation detection, Scaffolding, Sequence motif recognition</t>
+          <t>Genome assembly, Genome visualisation, Sequence motif recognition, Structural variation detection, Protein feature detection, Multilocus sequence typing, Genome annotation, Nucleic acid feature detection, Scaffolding</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ISEScan</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H42">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Identification of AMR genes in an assembled bacterial genome</t>
+          <t>Bacterial Genome Annotation</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
+          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
+          <t>Genome assembly, Genome visualisation, Sequence motif recognition, Structural variation detection, Protein feature detection, Multilocus sequence typing, Genome annotation, Nucleic acid feature detection, Scaffolding</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>bakta</t>
         </is>
       </c>
       <c r="H43">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>staramr_search</t>
+          <t>integron_finder</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2011,22 +2011,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Identification of AMR genes in an assembled bacterial genome</t>
+          <t>Bacterial Genome Annotation</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
+          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
+          <t>Genome assembly, Genome visualisation, Sequence motif recognition, Structural variation detection, Protein feature detection, Multilocus sequence typing, Genome annotation, Nucleic acid feature detection, Scaffolding</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>staramr</t>
+          <t>integronfinder</t>
         </is>
       </c>
       <c r="H44">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>isescan</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2049,22 +2049,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Identification of AMR genes in an assembled bacterial genome</t>
+          <t>Bacterial Genome Annotation</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Whole genome sequencing, Public health and epidemiology, Genomics, Microbiology, Sequence analysis, Infectious disease, Antimicrobial resistance</t>
+          <t>Genomics, Microbiology, Gene and protein families, Sequence analysis, Whole genome sequencing, Functional genomics, Mobile genetic elements</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance prediction, Read mapping, Genome visualisation, Genome annotation</t>
+          <t>Genome assembly, Genome visualisation, Sequence motif recognition, Structural variation detection, Protein feature detection, Multilocus sequence typing, Genome annotation, Nucleic acid feature detection, Scaffolding</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>bakta</t>
+          <t>ISEScan</t>
         </is>
       </c>
       <c r="H45">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Statistical calculation, Validation, Sequencing quality control, Genome comparison, Sequence composition calculation, Sequence assembly validation</t>
+          <t>Genome comparison, Validation, Statistical calculation, Sequence composition calculation, Sequence assembly validation, Sequencing quality control</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2149,7 +2149,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Statistical calculation, Validation, Sequencing quality control, Genome comparison, Sequence composition calculation, Sequence assembly validation</t>
+          <t>Genome comparison, Validation, Statistical calculation, Sequence composition calculation, Sequence assembly validation, Sequencing quality control</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bg_diamond_view</t>
+          <t>bg_diamond</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
+          <t>Sequence alignment analysis, De-novo assembly, Transcriptome assembly, Database search, Phylogenetic tree generation, Multiple sequence alignment, Coding region prediction</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
+          <t>Sequence alignment analysis, De-novo assembly, Transcriptome assembly, Database search, Phylogenetic tree generation, Multiple sequence alignment, Coding region prediction</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bg_diamond_makedb</t>
+          <t>rbc_mafft</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
+          <t>Sequence alignment analysis, De-novo assembly, Transcriptome assembly, Database search, Phylogenetic tree generation, Multiple sequence alignment, Coding region prediction</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>mafft</t>
         </is>
       </c>
       <c r="H51">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bg_diamond</t>
+          <t>bg_diamond_makedb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
+          <t>Sequence alignment analysis, De-novo assembly, Transcriptome assembly, Database search, Phylogenetic tree generation, Multiple sequence alignment, Coding region prediction</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rbc_mafft</t>
+          <t>bg_diamond_view</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Coding region prediction, Transcriptome assembly, Database search, De-novo assembly, Multiple sequence alignment, Sequence alignment analysis</t>
+          <t>Sequence alignment analysis, De-novo assembly, Transcriptome assembly, Database search, Phylogenetic tree generation, Multiple sequence alignment, Coding region prediction</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>mafft</t>
+          <t>diamond</t>
         </is>
       </c>
       <c r="H53">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sequence trimming, Transposon prediction, Read pre-processing, Primer removal</t>
+          <t>Read pre-processing, Primer removal, Sequence trimming, Transposon prediction</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Genome visualisation, Variant calling, Phylogenetic tree visualisation</t>
+          <t>Phylogenetic tree visualisation, Variant calling, Genome visualisation, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation, Genome visualisation, Variant calling, Phylogenetic tree visualisation</t>
+          <t>Phylogenetic tree visualisation, Variant calling, Genome visualisation, Phylogenetic tree generation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H57">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_align_seqs</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_make_group</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mothur_classify_seqs</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mothur_make_biom</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mothur_count_seqs</t>
+          <t>mothur_make_biom</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>mothur_align_seqs</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H64">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mothur_merge_files</t>
+          <t>mothur_count_seqs</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mothur_make_group</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_merge_files</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_pre_cluster</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mothur_pre_cluster</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_classify_seqs</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Sequence read processing, DNA barcoding, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Sequencing quality control, DNA barcoding, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3075,22 +3075,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>quast</t>
         </is>
       </c>
       <c r="H72">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3113,22 +3113,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>bamtools</t>
         </is>
       </c>
       <c r="H73">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>kraken_biom</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3151,22 +3151,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>kraken_biom</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H74">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>est_abundance</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3189,22 +3189,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>bracken</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="H75">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>coverm_contig</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3227,22 +3227,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>coverm</t>
         </is>
       </c>
       <c r="H76">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>metaspades</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3265,22 +3265,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Statistical calculation, Aggregation, Genome annotation, Visualisation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>spades</t>
         </is>
       </c>
       <c r="H77">
@@ -3289,11 +3289,11 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>bandage_info</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3303,22 +3303,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H78">
@@ -3327,11 +3327,11 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3341,22 +3341,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H79">
@@ -3365,11 +3365,11 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3379,22 +3379,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
+          <t>Assembly of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metagenomics, Sequence assembly</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Data handling, Read pre-processing, Variant calling, Primer removal, Sequence contamination filtering, Sequence assembly validation, Sequence alignment analysis, Sequence assembly visualisation, Genome assembly, Statistical calculation, Sequence file editing, Formatting, Sequence composition calculation, Sequencing quality control, Read mapping, Visualisation, Sequence trimming, Local alignment</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>megahit_contig2fastg</t>
         </is>
       </c>
       <c r="H80">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>humann_renorm_table</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3417,22 +3417,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Aggregation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H81">
@@ -3441,11 +3441,11 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan_annotate</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H82">
@@ -3479,11 +3479,11 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3493,22 +3493,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>flye</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H83">
@@ -3517,11 +3517,11 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>clustalw</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3531,22 +3531,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>clustalw</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H84">
@@ -3555,11 +3555,11 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>humann_unpack_pathways</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3569,22 +3569,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H85">
@@ -3593,11 +3593,11 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>medaka_consensus_pipeline</t>
+          <t>humann_regroup_table</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>medaka</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H86">
@@ -3631,11 +3631,11 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>krakentools_extract_kraken_reads</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3645,22 +3645,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="H87">
@@ -3669,11 +3669,11 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fasttree</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>fasttree</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H88">
@@ -3707,11 +3707,11 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3721,22 +3721,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="H89">
@@ -3745,11 +3745,11 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>krakentools_kreport2krona</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>krakentools</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H90">
@@ -3783,11 +3783,11 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>humann_split_stratified_table</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3797,22 +3797,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H91">
@@ -3821,11 +3821,11 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>humann_rename_table</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3835,22 +3835,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H92">
@@ -3859,11 +3859,11 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>abricate</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3873,22 +3873,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>abricate</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H93">
@@ -3897,11 +3897,11 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>bg_sortmerna</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3911,22 +3911,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Aggregation, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>sortmerna</t>
         </is>
       </c>
       <c r="H94">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>newick_display</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3949,22 +3949,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Visualisation, Aggregation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>newick_utils</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H95">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>clair3</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3987,22 +3987,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Visualisation, Aggregation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>clair3</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H96">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>mlst</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4025,22 +4025,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
+          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Phylogenetic tree generation (maximum likelihood and Bayesian methods), Phylogenetic tree generation (from molecular sequences), Scatter plot plotting, Box-Whisker plot plotting, Multiple sequence alignment, Cross-assembly, Sequence composition calculation, Taxonomic classification, Mapping assembly, Sequence assembly, Sequence contamination filtering, Data handling, Statistical calculation, De-novo assembly, Pairwise sequence alignment, Validation, Phylogenetic tree reconstruction, Mapping, Genome assembly, Phylogenetic tree analysis, Variant calling, Multilocus sequence typing, Aggregation, Sequencing quality control, Sequence alignment analysis, Sequence assembly visualisation, Phylogenetic tree generation, Visualisation, Antimicrobial resistance prediction, Base-calling</t>
+          <t>Visualisation, Aggregation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>mlst</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H97">
@@ -4049,11 +4049,11 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dada2_plotQualityProfile</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4063,22 +4063,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
+          <t>Identification of the micro-organisms in a beer using Nanopore sequencing</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>Visualisation, Aggregation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>dada2</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H98">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dada2_assignTaxonomyAddspecies</t>
+          <t>phyloseq_from_dada2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4149,12 +4149,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>dada2</t>
+          <t>phyloseq</t>
         </is>
       </c>
       <c r="H100">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>phyloseq_from_dada2</t>
+          <t>dada2_learnErrors</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>phyloseq</t>
+          <t>dada2</t>
         </is>
       </c>
       <c r="H101">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>dada2_filterAndTrim</t>
+          <t>dada2_dada</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>dada2_removeBimeraDenovo</t>
+          <t>dada2_seqCounts</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dada2_makeSequenceTable</t>
+          <t>dada2_filterAndTrim</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dada2_learnErrors</t>
+          <t>dada2_plotQualityProfile</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dada2_seqCounts</t>
+          <t>dada2_removeBimeraDenovo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dada2_dada</t>
+          <t>dada2_assignTaxonomyAddspecies</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Deposition, Variant calling, DNA barcoding, Analysis, Visualisation</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4429,11 +4429,11 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>dada2_makeSequenceTable</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4443,22 +4443,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Building an amplicon sequence variant (ASV) table from 16S data using DADA2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>DNA barcoding, Variant calling, Visualisation, Deposition, Analysis</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>dada2</t>
         </is>
       </c>
       <c r="H108">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4481,22 +4481,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Visualisation, Validation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H109">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4519,22 +4519,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Visualisation, Validation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H110">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4557,22 +4557,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Visualisation, Validation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H111">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>humann_split_stratified_table</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4595,22 +4595,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>16S Microbial analysis with Nanopore data</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Visualisation, Validation, Statistical calculation, Sequence contamination filtering, Sequence composition calculation, Taxonomic classification, Sequencing quality control</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H112">
@@ -4619,11 +4619,11 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>humann_rename_table</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4633,22 +4633,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H113">
@@ -4657,11 +4657,11 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bg_sortmerna</t>
+          <t>fasttree</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4671,22 +4671,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>sortmerna</t>
+          <t>fasttree</t>
         </is>
       </c>
       <c r="H114">
@@ -4695,11 +4695,11 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>humann_regroup_table</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4709,22 +4709,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H115">
@@ -4733,11 +4733,11 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>clustalw</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4747,22 +4747,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>clustalw</t>
         </is>
       </c>
       <c r="H116">
@@ -4771,11 +4771,11 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4785,22 +4785,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H117">
@@ -4809,11 +4809,11 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>graphlan_annotate</t>
+          <t>mlst</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4823,22 +4823,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>mlst</t>
         </is>
       </c>
       <c r="H118">
@@ -4847,11 +4847,11 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4861,22 +4861,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H119">
@@ -4885,11 +4885,11 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>humann_renorm_table</t>
+          <t>medaka_consensus_pipeline</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>medaka</t>
         </is>
       </c>
       <c r="H120">
@@ -4923,11 +4923,11 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>humann_unpack_pathways</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4937,22 +4937,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Aggregation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H121">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>racon</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4975,22 +4975,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>racon</t>
+          <t>flye</t>
         </is>
       </c>
       <c r="H122">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5013,22 +5013,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>nanoplot</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H123">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>clair3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5051,22 +5051,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>unicycler</t>
+          <t>clair3</t>
         </is>
       </c>
       <c r="H124">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PlasFlow</t>
+          <t>abricate</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>plasflow</t>
+          <t>abricate</t>
         </is>
       </c>
       <c r="H125">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>staramr_search</t>
+          <t>krakentools_extract_kraken_reads</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5127,22 +5127,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>staramr</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H126">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>miniasm</t>
+          <t>newick_display</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5165,22 +5165,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>miniasm</t>
+          <t>newick_utils</t>
         </is>
       </c>
       <c r="H127">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5203,22 +5203,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Antibiotic resistance detection</t>
+          <t>Pathogen detection from (direct Nanopore) sequencing data using Galaxy - Foodborne Edition</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
+          <t>Metagenomics, Public health and epidemiology, Taxonomy, Sequence assembly, Pathology, Sequence analysis</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Genome assembly, Scatter plot plotting, Aggregation, Box-Whisker plot plotting, Sequence assembly visualisation, Mapping assembly, De-novo assembly, Antimicrobial resistance prediction, Pairwise sequence alignment, Sequence analysis</t>
+          <t>Data handling, Phylogenetic tree generation (from molecular sequences), Box-Whisker plot plotting, Variant calling, Aggregation, Sequence contamination filtering, Sequence assembly, De-novo assembly, Pairwise sequence alignment, Phylogenetic tree generation, Phylogenetic tree generation (maximum likelihood and Bayesian methods), Multilocus sequence typing, Validation, Phylogenetic tree analysis, Mapping, Sequence alignment analysis, Scatter plot plotting, Multiple sequence alignment, Sequence assembly visualisation, Phylogenetic tree reconstruction, Antimicrobial resistance prediction, Genome assembly, Statistical calculation, Cross-assembly, Mapping assembly, Sequencing quality control, Sequence composition calculation, Visualisation, Base-calling, Taxonomic classification</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H128">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>krakentools_kreport2krona</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5241,22 +5241,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>krakentools</t>
         </is>
       </c>
       <c r="H129">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>bandage_info</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5279,22 +5279,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="H130">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>coverm_contig</t>
+          <t>est_abundance</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5317,22 +5317,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>coverm</t>
+          <t>bracken</t>
         </is>
       </c>
       <c r="H131">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5355,22 +5355,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>quast</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H132">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>metaspades</t>
+          <t>kraken_biom</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5393,22 +5393,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>spades</t>
+          <t>kraken_biom</t>
         </is>
       </c>
       <c r="H133">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5431,22 +5431,22 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Taxonomic Profiling and Visualization of Metagenomic Data</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomics, Microbial ecology, Taxonomy, Sequence analysis</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Genome annotation, Visualisation, Aggregation, Statistical calculation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H134">
@@ -5455,11 +5455,11 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5469,22 +5469,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>bamtools</t>
+          <t>nanoplot</t>
         </is>
       </c>
       <c r="H135">
@@ -5493,11 +5493,11 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bandage_image</t>
+          <t>PlasFlow</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>bandage</t>
+          <t>plasflow</t>
         </is>
       </c>
       <c r="H136">
@@ -5531,11 +5531,11 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>bandage_image</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5545,22 +5545,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Assembly of metagenomic sequencing data</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sequence composition calculation, Sequence assembly validation, Sequence contamination filtering, Data handling, Statistical calculation, Formatting, Read mapping, Local alignment, Genome assembly, Variant calling, Primer removal, Sequencing quality control, Sequence file editing, Sequence assembly visualisation, Sequence alignment analysis, Sequence trimming, Read pre-processing, Visualisation</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>megahit_contig2fastg</t>
+          <t>bandage</t>
         </is>
       </c>
       <c r="H137">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>miniasm</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5583,22 +5583,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>miniasm</t>
         </is>
       </c>
       <c r="H138">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5621,22 +5621,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>unicycler</t>
         </is>
       </c>
       <c r="H139">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>staramr_search</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>export2graphlan</t>
+          <t>staramr</t>
         </is>
       </c>
       <c r="H140">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>racon</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5697,22 +5697,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
+          <t>Antibiotic resistance detection</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
+          <t>Metagenomic sequencing, Public health and epidemiology, Metagenomics, Microbiology, Infectious disease, Sequence analysis, Antimicrobial resistance</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Scatter plot plotting, Box-Whisker plot plotting, Sequence assembly visualisation, Aggregation, Genome assembly, Antimicrobial resistance prediction, Sequence analysis, Mapping assembly, De-novo assembly, Pairwise sequence alignment</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>racon</t>
         </is>
       </c>
       <c r="H141">
@@ -5721,11 +5721,11 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>humann_split_stratified_table</t>
+          <t>humann_renorm_table</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5759,11 +5759,11 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>humann_rename_table</t>
+          <t>graphlan_annotate</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H143">
@@ -5797,11 +5797,11 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>bg_sortmerna</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>sortmerna</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H144">
@@ -5835,11 +5835,11 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>humann_regroup_table</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5873,11 +5873,11 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>humann_unpack_pathways</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5897,12 +5897,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>metaphlan</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H146">
@@ -5911,11 +5911,11 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>humann_regroup_table</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>cutadapt</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H147">
@@ -5949,11 +5949,11 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>graphlan_annotate</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>graphlan</t>
+          <t>metaphlan</t>
         </is>
       </c>
       <c r="H148">
@@ -5987,11 +5987,11 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>cutadapt</t>
         </is>
       </c>
       <c r="H149">
@@ -6025,11 +6025,11 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>humann_renorm_table</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>export2graphlan</t>
         </is>
       </c>
       <c r="H150">
@@ -6063,11 +6063,11 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>humann_unpack_pathways</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6087,12 +6087,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Conversion, Species frequency estimation, Sequence composition calculation, Phylogenetic tree editing, Phylogenetic inference, Taxonomic classification, Statistical calculation, Validation, Phylogenetic tree visualisation, Primer removal, Sequencing quality control, Phylogenetic analysis, Sequence alignment analysis, Sequence trimming, Read pre-processing, Sequence similarity search, Visualisation, Sequence comparison</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>humann</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H151">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>humann_split_stratified_table</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6115,22 +6115,22 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>16S Microbial analysis with Nanopore data</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H152">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>humann_rename_table</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6153,22 +6153,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>16S Microbial analysis with Nanopore data</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>humann</t>
         </is>
       </c>
       <c r="H153">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6191,22 +6191,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>16S Microbial analysis with Nanopore data</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>graphlan</t>
         </is>
       </c>
       <c r="H154">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>bg_sortmerna</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6229,22 +6229,22 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16S Microbial analysis with Nanopore data</t>
+          <t>Metatranscriptomics analysis using microbiome RNA-seq data (short)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metatranscriptomics, Microbial ecology, Taxonomy, Function analysis, Sequence analysis</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Statistical calculation, Validation, Sequencing quality control, Visualisation, Sequence composition calculation</t>
+          <t>Read pre-processing, Phylogenetic inference, Primer removal, Phylogenetic tree editing, Validation, Species frequency estimation, Sequence similarity search, Phylogenetic analysis, Sequence alignment analysis, Phylogenetic tree visualisation, Statistical calculation, Sequencing quality control, Sequence composition calculation, Visualisation, Sequence trimming, Conversion, Sequence comparison, Taxonomic classification</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>sortmerna</t>
         </is>
       </c>
       <c r="H155">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>QIIME 2 Cancer Microbiome Intervention</t>
+          <t>QIIME 2 Moving Pictures</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6283,6 +6283,11 @@
       <c r="A157">
         <v>30</v>
       </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>megahit</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>Microbiome</t>
@@ -6290,17 +6295,22 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>QIIME 2 Moving Pictures</t>
+          <t>Binning of metagenomic sequencing data</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
+          <t>Metagenomics, Sequence assembly</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Genome assembly, Statistical calculation, Validation, Sequence composition calculation, Sequence assembly validation, Sequencing quality control</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>glimmer_hmm</t>
+          <t>megahit</t>
         </is>
       </c>
       <c r="H157">
@@ -6309,11 +6319,11 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>checkm_lineage_wf</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6333,12 +6343,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Genome assembly, Statistical calculation, Validation, Sequencing quality control, Sequence composition calculation, Sequence assembly validation</t>
+          <t>Genome assembly, Statistical calculation, Validation, Sequence composition calculation, Sequence assembly validation, Sequencing quality control</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>megahit</t>
+          <t>checkm</t>
         </is>
       </c>
       <c r="H158">
@@ -6349,11 +6359,6 @@
       <c r="A159">
         <v>31</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>checkm_lineage_wf</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Microbiome</t>
@@ -6361,22 +6366,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Binning of metagenomic sequencing data</t>
+          <t>QIIME 2 Cancer Microbiome Intervention</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Metagenomics, Sequence assembly</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Genome assembly, Statistical calculation, Validation, Sequencing quality control, Sequence composition calculation, Sequence assembly validation</t>
+          <t>Microbial ecology, Taxonomy, Sequence analysis, Metabarcoding</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>checkm</t>
+          <t>glimmer_hmm</t>
         </is>
       </c>
       <c r="H159">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur_rarefaction_single</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6409,12 +6409,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>taxonomy_krona_chart</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H160">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_sub_sample</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>mothur_venn</t>
+          <t>mothur_get_groups</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>mothur_remove_seqs</t>
+          <t>mothur_remove_lineage</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>mothur_remove_groups</t>
+          <t>newick_display</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6561,12 +6561,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>newick_utils</t>
         </is>
       </c>
       <c r="H164">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>mothur_classify_seqs</t>
+          <t>mothur_align_seqs</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>mothur_dist_seqs</t>
+          <t>mothur_venn</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>mothur_chimera_vsearch</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>mothur_count_groups</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>mothur_tree_shared</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>mothur_dist_shared</t>
+          <t>mothur_remove_seqs</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>mothur_sub_sample</t>
+          <t>mothur_seq_error</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6941,12 +6941,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>taxonomy_krona_chart</t>
         </is>
       </c>
       <c r="H174">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>mothur_rarefaction_single</t>
+          <t>mothur_summary_single</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mothur_summary_single</t>
+          <t>mothur_dist_shared</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>mothur_align_seqs</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>mothur_remove_lineage</t>
+          <t>mothur_tree_shared</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>mothur_taxonomy_to_krona</t>
+          <t>mothur_pre_cluster</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>mothur_make_contigs</t>
+          <t>mothur_taxonomy_to_krona</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>mothur_seq_error</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>mothur_cluster</t>
+          <t>mothur_count_groups</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>mothur_heatmap_sim</t>
+          <t>mothur_dist_seqs</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>mothur_get_groups</t>
+          <t>mothur_heatmap_sim</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_chimera_vsearch</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_classify_seqs</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>newick_display</t>
+          <t>mothur_cluster</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7473,12 +7473,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>newick_utils</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H188">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>mothur_pre_cluster</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_remove_groups</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_make_contigs</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>mothur_unique_seqs</t>
+          <t>mothur_rarefaction_single</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>mothur_venn</t>
+          <t>mothur_sub_sample</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>mothur_remove_seqs</t>
+          <t>mothur_remove_lineage</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>mothur_remove_groups</t>
+          <t>newick_display</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7739,12 +7739,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>mothur</t>
+          <t>newick_utils</t>
         </is>
       </c>
       <c r="H195">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>mothur_filter_seqs</t>
+          <t>mothur_cluster_split</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>mothur_classify_seqs</t>
+          <t>mothur_venn</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>mothur_dist_seqs</t>
+          <t>mothur_make_shared</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>mothur_chimera_vsearch</t>
+          <t>mothur_unique_seqs</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>mothur_count_groups</t>
+          <t>mothur_filter_seqs</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>mothur_tree_shared</t>
+          <t>mothur_remove_seqs</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>mothur_dist_shared</t>
+          <t>mothur_summary_single</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>mothur_sub_sample</t>
+          <t>mothur_dist_shared</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>mothur_make_shared</t>
+          <t>mothur_count_seqs</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>mothur_rarefaction_single</t>
+          <t>mothur_summary_seqs</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>mothur_summary_single</t>
+          <t>mothur_tree_shared</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>mothur_count_seqs</t>
+          <t>mothur_pre_cluster</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>mothur_remove_lineage</t>
+          <t>mothur_classify_otu</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>mothur_cluster</t>
+          <t>mothur_screen_seqs</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>mothur_heatmap_sim</t>
+          <t>mothur_count_groups</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mothur_summary_seqs</t>
+          <t>mothur_dist_seqs</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>mothur_screen_seqs</t>
+          <t>mothur_heatmap_sim</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>newick_display</t>
+          <t>mothur_chimera_vsearch</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8423,12 +8423,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>newick_utils</t>
+          <t>mothur</t>
         </is>
       </c>
       <c r="H213">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>mothur_pre_cluster</t>
+          <t>mothur_classify_seqs</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>mothur_cluster_split</t>
+          <t>mothur_cluster</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>mothur_classify_otu</t>
+          <t>mothur_remove_groups</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Phylogenetic tree analysis, Sequencing quality control, Phylogenetic analysis, Sequence clustering, Taxonomic classification, Phylogenetic tree generation, Sequence read processing, DNA barcoding, Phylogenetic tree reconstruction, Visualisation</t>
+          <t>Phylogenetic analysis, Sequence read processing, Sequence clustering, Phylogenetic tree reconstruction, Sequencing quality control, DNA barcoding, Visualisation, Phylogenetic tree generation, Phylogenetic tree analysis, Taxonomic classification</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8575,12 +8575,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>jbrowse</t>
+          <t>snippy</t>
         </is>
       </c>
       <c r="H217">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8613,12 +8613,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>snippy</t>
+          <t>multiqc</t>
         </is>
       </c>
       <c r="H218">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>tb_profiler_profile</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8651,12 +8651,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>tbprofiler</t>
+          <t>jbrowse</t>
         </is>
       </c>
       <c r="H219">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>EMBOSS: seqret84</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8727,12 +8727,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>emboss_5</t>
         </is>
       </c>
       <c r="H221">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tb_profiler_profile</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8765,12 +8765,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>multiqc</t>
+          <t>tb-profiler</t>
         </is>
       </c>
       <c r="H222">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8803,12 +8803,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H223">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>EMBOSS: seqret84</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Global alignment, Variant calling, Sequencing quality control, Genome visualisation, Sequence composition calculation, Sequence alignment analysis, Sequence alignment, Phylogenetic tree generation, Taxonomic classification, Sequence contamination filtering, Sequence analysis, Statistical calculation, Antimicrobial resistance prediction, Validation, Local alignment, Phylogenetic tree visualisation</t>
+          <t>Sequence alignment analysis, Global alignment, Variant calling, Antimicrobial resistance prediction, Genome visualisation, Phylogenetic tree visualisation, Statistical calculation, Sequence contamination filtering, Sequence alignment, Sequence analysis, Sequence composition calculation, Sequencing quality control, Phylogenetic tree generation, Validation, Local alignment, Taxonomic classification</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>emboss_5</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H224">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>metaquantome_expand</t>
+          <t>metaquantome_filter</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8869,17 +8869,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>metaquantome_stat</t>
+          <t>metaquantome_sample</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8907,17 +8907,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>metaquantome_filter</t>
+          <t>metaquantome_expand</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8945,17 +8945,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>metaquantome_viz</t>
+          <t>metaquantome_db</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8983,17 +8983,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>metaquantome_db</t>
+          <t>metaquantome_stat</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9021,17 +9021,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>metaquantome_sample</t>
+          <t>metaquantome_viz</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9059,17 +9059,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>metaQuantome 3: Taxonomy</t>
+          <t>metaQuantome 2: Function</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>metaquantome_expand</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9097,22 +9097,22 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Label-free quantification, Filtering, Visualisation, Prediction and recognition, Formatting</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="H231">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>metaquantome_stat</t>
+          <t>msconvert</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9135,22 +9135,22 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Label-free quantification, Filtering, Visualisation, Prediction and recognition, Formatting</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>msconvert</t>
         </is>
       </c>
       <c r="H232">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>metaquantome_filter</t>
+          <t>peptide_shaker</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9173,22 +9173,22 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Label-free quantification, Filtering, Visualisation, Prediction and recognition, Formatting</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>peptideshaker</t>
         </is>
       </c>
       <c r="H233">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>metaquantome_viz</t>
+          <t>search_gui</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9211,22 +9211,22 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Label-free quantification, Filtering, Visualisation, Prediction and recognition, Formatting</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>peptideshaker</t>
         </is>
       </c>
       <c r="H234">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>metaquantome_db</t>
+          <t>flashlfq</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9249,22 +9249,22 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>metaQuantome 1: Data creation</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Label-free quantification, Filtering, Visualisation, Prediction and recognition, Formatting</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>flashlfq</t>
         </is>
       </c>
       <c r="H235">
@@ -9273,11 +9273,11 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>metaquantome_sample</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9287,22 +9287,22 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>metaQuantome 2: Function</t>
+          <t>Metaproteomics tutorial</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics</t>
+          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Functional clustering, Statistical inference, Quantification, Heat map generation, Differential protein expression analysis, Query and retrieval, Filtering, Principal component visualisation, Indexing, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>metaquantome</t>
+          <t>unipept</t>
         </is>
       </c>
       <c r="H236">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>search_gui</t>
+          <t>peptide_shaker</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>peptide_shaker</t>
+          <t>search_gui</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Visualisation, Prediction and recognition</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9387,11 +9387,11 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>metaquantome_filter</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Metaproteomics tutorial</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Prediction and recognition, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H239">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>msconvert</t>
+          <t>metaquantome_sample</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9439,22 +9439,22 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>metaQuantome 1: Data creation</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>msconvert</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H240">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>flashlfq</t>
+          <t>metaquantome_expand</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9477,22 +9477,22 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>metaQuantome 1: Data creation</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>flashlfq</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H241">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>search_gui</t>
+          <t>metaquantome_db</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9515,22 +9515,22 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>metaQuantome 1: Data creation</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>peptideshaker</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H242">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>peptide_shaker</t>
+          <t>metaquantome_stat</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9553,22 +9553,22 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>metaQuantome 1: Data creation</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>peptideshaker</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H243">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>metaquantome_viz</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9591,22 +9591,22 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>metaQuantome 1: Data creation</t>
+          <t>metaQuantome 3: Taxonomy</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Proteomics, Proteogenomics, Biodiversity, Taxonomy</t>
+          <t>Proteomics, Proteogenomics, Metatranscriptomics, Microbial ecology, Metagenomics, Taxonomy</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Label-free quantification, Prediction and recognition, Formatting, Filtering, Visualisation</t>
+          <t>Query and retrieval, Heat map generation, Functional clustering, Quantification, Differential protein expression analysis, Filtering, Indexing, Statistical inference, Principal component visualisation, Visualisation</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>unipept</t>
+          <t>metaquantome</t>
         </is>
       </c>
       <c r="H244">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>falco</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9639,12 +9639,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Sequence contamination filtering, Expression analysis, Sequencing quality control, Read mapping, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>falco</t>
+          <t>fastp</t>
         </is>
       </c>
       <c r="H245">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>est_abundance</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9677,12 +9677,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Sequence contamination filtering, Expression analysis, Sequencing quality control, Read mapping, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>fastp</t>
+          <t>bracken</t>
         </is>
       </c>
       <c r="H246">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>recentrifuge</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9715,12 +9715,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Sequence contamination filtering, Expression analysis, Sequencing quality control, Read mapping, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>kraken2</t>
+          <t>recentrifuge</t>
         </is>
       </c>
       <c r="H247">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>recentrifuge</t>
+          <t>falco</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9753,12 +9753,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Sequence contamination filtering, Expression analysis, Sequencing quality control, Read mapping, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>recentrifuge</t>
+          <t>falco</t>
         </is>
       </c>
       <c r="H248">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>est_abundance</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9791,12 +9791,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Taxonomic classification, Sequence contamination filtering, Expression analysis, Statistical calculation, Read mapping, Sequencing quality control, Visualisation, Cross-assembly</t>
+          <t>Cross-assembly, Statistical calculation, Sequence contamination filtering, Expression analysis, Sequencing quality control, Read mapping, Visualisation, Taxonomic classification</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>bracken</t>
+          <t>kraken2</t>
         </is>
       </c>
       <c r="H249">
